--- a/Programs,SendTo,StartUp管理.xlsx
+++ b/Programs,SendTo,StartUp管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1450CDF7-378A-4315-BF46-7E209C3F110B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E354C2A-BD44-48F2-AA13-09A611DF6949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="-10470" windowWidth="32415" windowHeight="40725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="-120" windowWidth="26880" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">codes!$A$3:$G$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">codes!$A$3:$G$110</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">program!$A$3:$J$111</definedName>
     <definedName name="カテゴリ">data!$C$2:$C$25</definedName>
   </definedNames>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="434">
   <si>
     <t>プログラム</t>
     <phoneticPr fontId="3"/>
@@ -1532,9 +1532,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>C:\codes\bat\tools\win\StartWsl2SSH.bat</t>
-  </si>
-  <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -1687,6 +1684,9 @@
   <si>
     <t>-</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C:\codes\vbs\tools\win\other\StartupWsl.vbs</t>
   </si>
 </sst>
 </file>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -10262,25 +10262,25 @@
         <v>108</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>336</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J112" s="1" t="str">
         <f t="shared" si="6"/>
@@ -10336,25 +10336,25 @@
         <v>109</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="D113" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>344</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J113" s="1" t="str">
         <f t="shared" si="6"/>
@@ -10410,25 +10410,25 @@
         <v>110</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>342</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>132</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J114" s="1" t="str">
         <f t="shared" si="6"/>
@@ -10484,25 +10484,25 @@
         <v>111</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>342</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>132</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J115" s="1" t="str">
         <f t="shared" si="6"/>
@@ -10558,25 +10558,25 @@
         <v>112</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>342</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>132</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J116" s="1" t="str">
         <f t="shared" si="6"/>
@@ -10632,25 +10632,25 @@
         <v>113</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>337</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>132</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J117" s="1" t="str">
         <f t="shared" si="6"/>
@@ -10706,25 +10706,25 @@
         <v>114</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>345</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J118" s="1" t="str">
         <f t="shared" si="6"/>
@@ -10780,16 +10780,16 @@
         <v>115</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J119" s="1" t="str">
         <f t="shared" si="6"/>
@@ -10845,16 +10845,16 @@
         <v>116</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J120" s="1" t="str">
         <f t="shared" si="6"/>
@@ -10910,16 +10910,16 @@
         <v>117</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J121" s="1" t="str">
         <f t="shared" si="6"/>
@@ -10975,16 +10975,16 @@
         <v>118</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J122" s="1" t="str">
         <f t="shared" si="6"/>
@@ -11040,16 +11040,16 @@
         <v>119</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J123" s="1" t="str">
         <f t="shared" si="6"/>
@@ -11105,16 +11105,16 @@
         <v>120</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J124" s="1" t="str">
         <f t="shared" si="6"/>
@@ -11170,16 +11170,16 @@
         <v>121</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J125" s="1" t="str">
         <f t="shared" si="6"/>
@@ -11235,16 +11235,16 @@
         <v>122</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J126" s="1" t="str">
         <f t="shared" si="6"/>
@@ -11300,16 +11300,16 @@
         <v>123</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J127" s="1" t="str">
         <f t="shared" si="6"/>
@@ -11365,16 +11365,16 @@
         <v>124</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J128" s="1" t="str">
         <f t="shared" si="6"/>
@@ -11430,16 +11430,16 @@
         <v>125</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J129" s="1" t="str">
         <f t="shared" si="6"/>
@@ -11495,16 +11495,16 @@
         <v>126</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J130" s="1" t="str">
         <f t="shared" si="6"/>
@@ -11560,16 +11560,16 @@
         <v>127</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J131" s="1" t="str">
         <f t="shared" si="6"/>
@@ -11625,16 +11625,16 @@
         <v>128</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J132" s="1" t="str">
         <f t="shared" si="6"/>
@@ -11690,16 +11690,16 @@
         <v>129</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J133" s="1" t="str">
         <f t="shared" si="6"/>
@@ -11755,16 +11755,16 @@
         <v>130</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J134" s="1" t="str">
         <f t="shared" ref="J134:J197" si="9">IF(OR($E134="-",COUNTIF(カテゴリ,E134)&gt;0),"","★NG★")</f>
@@ -11820,16 +11820,16 @@
         <v>131</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J135" s="1" t="str">
         <f t="shared" si="9"/>
@@ -11885,16 +11885,16 @@
         <v>132</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J136" s="1" t="str">
         <f t="shared" si="9"/>
@@ -11950,16 +11950,16 @@
         <v>133</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J137" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12015,16 +12015,16 @@
         <v>134</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J138" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12080,16 +12080,16 @@
         <v>135</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J139" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12145,16 +12145,16 @@
         <v>136</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J140" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12210,16 +12210,16 @@
         <v>137</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J141" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12275,16 +12275,16 @@
         <v>138</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J142" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12340,16 +12340,16 @@
         <v>139</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J143" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12405,16 +12405,16 @@
         <v>140</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J144" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12470,16 +12470,16 @@
         <v>141</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J145" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12535,16 +12535,16 @@
         <v>142</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J146" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12600,16 +12600,16 @@
         <v>143</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J147" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12665,16 +12665,16 @@
         <v>144</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J148" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12730,16 +12730,16 @@
         <v>145</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J149" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12795,16 +12795,16 @@
         <v>146</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J150" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12860,16 +12860,16 @@
         <v>147</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J151" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12925,16 +12925,16 @@
         <v>148</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J152" s="1" t="str">
         <f t="shared" si="9"/>
@@ -12990,16 +12990,16 @@
         <v>149</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J153" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13055,16 +13055,16 @@
         <v>150</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J154" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13120,16 +13120,16 @@
         <v>151</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J155" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13185,16 +13185,16 @@
         <v>152</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J156" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13250,16 +13250,16 @@
         <v>153</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J157" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13315,16 +13315,16 @@
         <v>154</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J158" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13380,16 +13380,16 @@
         <v>155</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J159" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13445,16 +13445,16 @@
         <v>156</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J160" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13510,16 +13510,16 @@
         <v>157</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J161" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13575,16 +13575,16 @@
         <v>158</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J162" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13640,16 +13640,16 @@
         <v>159</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J163" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13705,16 +13705,16 @@
         <v>160</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J164" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13770,16 +13770,16 @@
         <v>161</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J165" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13835,16 +13835,16 @@
         <v>162</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J166" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13900,16 +13900,16 @@
         <v>163</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J167" s="1" t="str">
         <f t="shared" si="9"/>
@@ -13965,16 +13965,16 @@
         <v>164</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J168" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14030,16 +14030,16 @@
         <v>165</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J169" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14095,16 +14095,16 @@
         <v>166</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J170" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14160,16 +14160,16 @@
         <v>167</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J171" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14225,16 +14225,16 @@
         <v>168</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J172" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14290,16 +14290,16 @@
         <v>169</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J173" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14355,16 +14355,16 @@
         <v>170</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J174" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14420,16 +14420,16 @@
         <v>171</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J175" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14485,16 +14485,16 @@
         <v>172</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J176" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14550,16 +14550,16 @@
         <v>173</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J177" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14615,16 +14615,16 @@
         <v>174</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J178" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14680,16 +14680,16 @@
         <v>175</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J179" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14745,16 +14745,16 @@
         <v>176</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J180" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14810,16 +14810,16 @@
         <v>177</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J181" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14875,16 +14875,16 @@
         <v>178</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J182" s="1" t="str">
         <f t="shared" si="9"/>
@@ -14940,16 +14940,16 @@
         <v>179</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J183" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15005,16 +15005,16 @@
         <v>180</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J184" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15070,16 +15070,16 @@
         <v>181</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J185" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15135,16 +15135,16 @@
         <v>182</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J186" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15200,16 +15200,16 @@
         <v>183</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J187" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15265,16 +15265,16 @@
         <v>184</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J188" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15330,16 +15330,16 @@
         <v>185</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J189" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15395,16 +15395,16 @@
         <v>186</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J190" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15460,16 +15460,16 @@
         <v>187</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J191" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15525,16 +15525,16 @@
         <v>188</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J192" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15590,16 +15590,16 @@
         <v>189</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J193" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15655,16 +15655,16 @@
         <v>190</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J194" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15720,16 +15720,16 @@
         <v>191</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J195" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15785,16 +15785,16 @@
         <v>192</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J196" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15850,16 +15850,16 @@
         <v>193</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J197" s="1" t="str">
         <f t="shared" si="9"/>
@@ -15915,16 +15915,16 @@
         <v>194</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J198" s="1" t="str">
         <f t="shared" ref="J198:J204" si="12">IF(OR($E198="-",COUNTIF(カテゴリ,E198)&gt;0),"","★NG★")</f>
@@ -15980,16 +15980,16 @@
         <v>195</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J199" s="1" t="str">
         <f t="shared" si="12"/>
@@ -16045,16 +16045,16 @@
         <v>196</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J200" s="1" t="str">
         <f t="shared" si="12"/>
@@ -16110,16 +16110,16 @@
         <v>197</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J201" s="1" t="str">
         <f t="shared" si="12"/>
@@ -16175,16 +16175,16 @@
         <v>198</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J202" s="1" t="str">
         <f t="shared" si="12"/>
@@ -16240,16 +16240,16 @@
         <v>199</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J203" s="1" t="str">
         <f t="shared" si="12"/>
@@ -16305,16 +16305,16 @@
         <v>200</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J204" s="1" t="str">
         <f t="shared" si="12"/>
@@ -16387,14 +16387,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:O111"/>
+  <dimension ref="A2:O110"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -16418,7 +16418,7 @@
   <sheetData>
     <row r="2" spans="1:15">
       <c r="D2" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
@@ -16451,7 +16451,7 @@
         <v>393</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>331</v>
@@ -16488,7 +16488,7 @@
         <v>357</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>132</v>
@@ -16526,7 +16526,7 @@
         <v>C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\UserDefHotKey2.ahk.lnk</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -16541,10 +16541,10 @@
         <v>359</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" ref="E6:F42" si="0">$B6</f>
+        <f t="shared" ref="E6:E41" si="0">$B6</f>
         <v>AddString2FileFolder.vbs</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -16563,7 +16563,7 @@
         <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "C:\Users\draem\AppData\Roaming\Microsoft\Windows\SendTo\800_AddString2FileFolder.vbs.lnk" "C:\codes\vbs\tools\win\file_ope\AddString2FileFolder.vbs"</v>
       </c>
       <c r="K6" s="1" t="str">
-        <f t="shared" ref="K6:K69" si="1">IF($E6="-","","800_"&amp;$E6&amp;".lnk")</f>
+        <f t="shared" ref="K6:K68" si="1">IF($E6="-","","800_"&amp;$E6&amp;".lnk")</f>
         <v>800_AddString2FileFolder.vbs.lnk</v>
       </c>
       <c r="L6" s="1" t="str">
@@ -16579,7 +16579,7 @@
         <v/>
       </c>
       <c r="O6" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -16594,7 +16594,7 @@
         <v>360</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -16632,7 +16632,7 @@
         <v/>
       </c>
       <c r="O7" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -16647,7 +16647,7 @@
         <v>361</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -16685,7 +16685,7 @@
         <v/>
       </c>
       <c r="O8" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -16700,7 +16700,7 @@
         <v>362</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -16738,7 +16738,7 @@
         <v/>
       </c>
       <c r="O9" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -16753,7 +16753,7 @@
         <v>363</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -16791,7 +16791,7 @@
         <v/>
       </c>
       <c r="O10" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -16806,7 +16806,7 @@
         <v>364</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -16844,7 +16844,7 @@
         <v/>
       </c>
       <c r="O11" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -16859,10 +16859,10 @@
         <v>365</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>132</v>
@@ -16896,7 +16896,7 @@
         <v/>
       </c>
       <c r="O12" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -16911,10 +16911,10 @@
         <v>366</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>132</v>
@@ -16948,7 +16948,7 @@
         <v/>
       </c>
       <c r="O13" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -16963,10 +16963,10 @@
         <v>367</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>132</v>
@@ -17000,7 +17000,7 @@
         <v/>
       </c>
       <c r="O14" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -17015,7 +17015,7 @@
         <v>368</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -17053,7 +17053,7 @@
         <v/>
       </c>
       <c r="O15" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -17068,7 +17068,7 @@
         <v>358</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -17106,7 +17106,7 @@
         <v/>
       </c>
       <c r="O16" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -17121,10 +17121,10 @@
         <v>369</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>132</v>
@@ -17158,7 +17158,7 @@
         <v/>
       </c>
       <c r="O17" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -17173,10 +17173,10 @@
         <v>370</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>132</v>
@@ -17210,7 +17210,7 @@
         <v/>
       </c>
       <c r="O18" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -17225,10 +17225,10 @@
         <v>371</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>132</v>
@@ -17262,7 +17262,7 @@
         <v/>
       </c>
       <c r="O19" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -17277,10 +17277,10 @@
         <v>372</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>132</v>
@@ -17314,7 +17314,7 @@
         <v/>
       </c>
       <c r="O20" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -17329,10 +17329,10 @@
         <v>373</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>132</v>
@@ -17366,7 +17366,7 @@
         <v/>
       </c>
       <c r="O21" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -17381,10 +17381,10 @@
         <v>374</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>132</v>
@@ -17418,7 +17418,7 @@
         <v/>
       </c>
       <c r="O22" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -17433,10 +17433,10 @@
         <v>375</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>132</v>
@@ -17470,7 +17470,7 @@
         <v/>
       </c>
       <c r="O23" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -17485,10 +17485,10 @@
         <v>376</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>132</v>
@@ -17522,7 +17522,7 @@
         <v/>
       </c>
       <c r="O24" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -17537,10 +17537,10 @@
         <v>377</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>132</v>
@@ -17574,7 +17574,7 @@
         <v/>
       </c>
       <c r="O25" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -17589,10 +17589,10 @@
         <v>378</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>132</v>
@@ -17626,7 +17626,7 @@
         <v/>
       </c>
       <c r="O26" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -17641,10 +17641,10 @@
         <v>379</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>132</v>
@@ -17678,7 +17678,7 @@
         <v/>
       </c>
       <c r="O27" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -17693,10 +17693,10 @@
         <v>380</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>132</v>
@@ -17730,7 +17730,7 @@
         <v/>
       </c>
       <c r="O28" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -17745,10 +17745,10 @@
         <v>381</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>132</v>
@@ -17782,7 +17782,7 @@
         <v/>
       </c>
       <c r="O29" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -17797,10 +17797,10 @@
         <v>382</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>132</v>
@@ -17834,7 +17834,7 @@
         <v/>
       </c>
       <c r="O30" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -17849,7 +17849,7 @@
         <v>383</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -17887,7 +17887,7 @@
         <v/>
       </c>
       <c r="O31" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -17902,10 +17902,10 @@
         <v>384</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>132</v>
@@ -17939,7 +17939,7 @@
         <v/>
       </c>
       <c r="O32" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -17954,10 +17954,10 @@
         <v>385</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>132</v>
@@ -17991,7 +17991,7 @@
         <v/>
       </c>
       <c r="O33" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -18006,10 +18006,10 @@
         <v>386</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>132</v>
@@ -18043,7 +18043,7 @@
         <v/>
       </c>
       <c r="O34" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -18058,10 +18058,10 @@
         <v>387</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>132</v>
@@ -18095,7 +18095,7 @@
         <v/>
       </c>
       <c r="O35" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -18110,7 +18110,7 @@
         <v>388</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18148,7 +18148,7 @@
         <v/>
       </c>
       <c r="O36" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -18163,7 +18163,7 @@
         <v>389</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18201,7 +18201,7 @@
         <v/>
       </c>
       <c r="O37" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -18216,10 +18216,10 @@
         <v>394</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>132</v>
@@ -18253,7 +18253,7 @@
         <v/>
       </c>
       <c r="O38" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -18268,7 +18268,7 @@
         <v>390</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18306,7 +18306,7 @@
         <v/>
       </c>
       <c r="O39" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -18321,7 +18321,7 @@
         <v>391</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18359,7 +18359,7 @@
         <v/>
       </c>
       <c r="O40" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -18374,7 +18374,7 @@
         <v>392</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -18412,37 +18412,36 @@
         <v/>
       </c>
       <c r="O41" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1" t="str">
         <f>[1]!getfilename(C42)</f>
-        <v>StartWsl2SSH.bat</v>
+        <v>login_wsl2.ttl</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>StartWsl2SSH.bat</v>
+      <c r="F42" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="H42" s="1" t="str">
         <f>IF($D42="-","","mkdir """&amp;概要!$C$4&amp;"\"&amp;概要!$C$8&amp;""" &amp; """&amp;概要!$C$7&amp;""" """&amp;$I42&amp;""" """&amp;$C42&amp;"""")</f>
-        <v/>
+        <v>mkdir "C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttw（SSH接続toWSL2＠Teraterm）.lnk" "C:\codes\ttl\login_wsl2.ttl"</v>
       </c>
       <c r="I42" s="1" t="str">
         <f>IF($D42="-","",概要!$C$4&amp;"\"&amp;概要!$C$8&amp;"\"&amp;D42&amp;".lnk")</f>
-        <v/>
+        <v>C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttw（SSH接続toWSL2＠Teraterm）.lnk</v>
       </c>
       <c r="J42" s="1" t="str">
         <f>IF($E42="-","",""""&amp;概要!$C$7&amp;""" """&amp;$L42&amp;""" """&amp;$C42&amp;"""")</f>
@@ -18458,29 +18457,29 @@
       </c>
       <c r="M42" s="1" t="str">
         <f>IF($F42="-","",""""&amp;概要!$C$7&amp;""" """&amp;$N42&amp;""" """&amp;$C42&amp;"""")</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\StartWsl2SSH.bat.lnk" "C:\codes\bat\tools\win\StartWsl2SSH.bat"</v>
+        <v/>
       </c>
       <c r="N42" s="1" t="str">
         <f>IF($F42="-","",概要!$C$6&amp;"\"&amp;$F42&amp;".lnk")</f>
-        <v>C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\StartWsl2SSH.bat.lnk</v>
+        <v/>
       </c>
       <c r="O42" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1" t="str">
         <f>[1]!getfilename(C43)</f>
-        <v>login_wsl2.ttl</v>
+        <v>login_raspberrypi.ttl</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>132</v>
@@ -18490,11 +18489,11 @@
       </c>
       <c r="H43" s="1" t="str">
         <f>IF($D43="-","","mkdir """&amp;概要!$C$4&amp;"\"&amp;概要!$C$8&amp;""" &amp; """&amp;概要!$C$7&amp;""" """&amp;$I43&amp;""" """&amp;$C43&amp;"""")</f>
-        <v>mkdir "C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttw（SSH接続toWSL2＠Teraterm）.lnk" "C:\codes\ttl\login_wsl2.ttl"</v>
+        <v>mkdir "C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toRaspberryPi＠Teraterm）.lnk" "C:\codes\ttl\login_raspberrypi.ttl"</v>
       </c>
       <c r="I43" s="1" t="str">
         <f>IF($D43="-","",概要!$C$4&amp;"\"&amp;概要!$C$8&amp;"\"&amp;D43&amp;".lnk")</f>
-        <v>C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttw（SSH接続toWSL2＠Teraterm）.lnk</v>
+        <v>C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toRaspberryPi＠Teraterm）.lnk</v>
       </c>
       <c r="J43" s="1" t="str">
         <f>IF($E43="-","",""""&amp;概要!$C$7&amp;""" """&amp;$L43&amp;""" """&amp;$C43&amp;"""")</f>
@@ -18517,36 +18516,37 @@
         <v/>
       </c>
       <c r="O43" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1" t="str">
         <f>[1]!getfilename(C44)</f>
-        <v>login_raspberrypi.ttl</v>
+        <v>PopupTimeSignal.vbs</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="E44" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>132</v>
+      <c r="F44" s="1" t="str">
+        <f t="shared" ref="F44:F45" si="2">$B44</f>
+        <v>PopupTimeSignal.vbs</v>
       </c>
       <c r="H44" s="1" t="str">
         <f>IF($D44="-","","mkdir """&amp;概要!$C$4&amp;"\"&amp;概要!$C$8&amp;""" &amp; """&amp;概要!$C$7&amp;""" """&amp;$I44&amp;""" """&amp;$C44&amp;"""")</f>
-        <v>mkdir "C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess" &amp; "C:\codes\vbs\command\CreateShortcutFile.vbs" "C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toRaspberryPi＠Teraterm）.lnk" "C:\codes\ttl\login_raspberrypi.ttl"</v>
+        <v/>
       </c>
       <c r="I44" s="1" t="str">
         <f>IF($D44="-","",概要!$C$4&amp;"\"&amp;概要!$C$8&amp;"\"&amp;D44&amp;".lnk")</f>
-        <v>C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$QuickAccess\ttr（SSH接続toRaspberryPi＠Teraterm）.lnk</v>
+        <v/>
       </c>
       <c r="J44" s="1" t="str">
         <f>IF($E44="-","",""""&amp;概要!$C$7&amp;""" """&amp;$L44&amp;""" """&amp;$C44&amp;"""")</f>
@@ -18562,36 +18562,36 @@
       </c>
       <c r="M44" s="1" t="str">
         <f>IF($F44="-","",""""&amp;概要!$C$7&amp;""" """&amp;$N44&amp;""" """&amp;$C44&amp;"""")</f>
-        <v/>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\PopupTimeSignal.vbs.lnk" "C:\codes\vbs\tools\win\other\PopupTimeSignal.vbs"</v>
       </c>
       <c r="N44" s="1" t="str">
         <f>IF($F44="-","",概要!$C$6&amp;"\"&amp;$F44&amp;".lnk")</f>
-        <v/>
+        <v>C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\PopupTimeSignal.vbs.lnk</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1" t="str">
         <f>[1]!getfilename(C45)</f>
-        <v>PopupTimeSignal.vbs</v>
+        <v>StartupWsl.vbs</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f t="shared" ref="F45" si="2">$B45</f>
-        <v>PopupTimeSignal.vbs</v>
+        <f t="shared" si="2"/>
+        <v>StartupWsl.vbs</v>
       </c>
       <c r="H45" s="1" t="str">
         <f>IF($D45="-","","mkdir """&amp;概要!$C$4&amp;"\"&amp;概要!$C$8&amp;""" &amp; """&amp;概要!$C$7&amp;""" """&amp;$I45&amp;""" """&amp;$C45&amp;"""")</f>
@@ -18615,22 +18615,22 @@
       </c>
       <c r="M45" s="1" t="str">
         <f>IF($F45="-","",""""&amp;概要!$C$7&amp;""" """&amp;$N45&amp;""" """&amp;$C45&amp;"""")</f>
-        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\PopupTimeSignal.vbs.lnk" "C:\codes\vbs\tools\win\other\PopupTimeSignal.vbs"</v>
+        <v>"C:\codes\vbs\command\CreateShortcutFile.vbs" "C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\StartupWsl.vbs.lnk" "C:\codes\vbs\tools\win\other\StartupWsl.vbs"</v>
       </c>
       <c r="N45" s="1" t="str">
         <f>IF($F45="-","",概要!$C$6&amp;"\"&amp;$F45&amp;".lnk")</f>
-        <v>C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\PopupTimeSignal.vbs.lnk</v>
+        <v>C:\Users\draem\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\StartupWsl.vbs.lnk</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>132</v>
@@ -18667,15 +18667,15 @@
         <v/>
       </c>
       <c r="O46" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>132</v>
@@ -18712,15 +18712,15 @@
         <v/>
       </c>
       <c r="O47" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>132</v>
@@ -18757,15 +18757,15 @@
         <v/>
       </c>
       <c r="O48" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>132</v>
@@ -18802,15 +18802,15 @@
         <v/>
       </c>
       <c r="O49" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>132</v>
@@ -18847,15 +18847,15 @@
         <v/>
       </c>
       <c r="O50" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>132</v>
@@ -18892,15 +18892,15 @@
         <v/>
       </c>
       <c r="O51" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>132</v>
@@ -18937,15 +18937,15 @@
         <v/>
       </c>
       <c r="O52" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>132</v>
@@ -18982,15 +18982,15 @@
         <v/>
       </c>
       <c r="O53" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>132</v>
@@ -19027,15 +19027,15 @@
         <v/>
       </c>
       <c r="O54" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>132</v>
@@ -19072,15 +19072,15 @@
         <v/>
       </c>
       <c r="O55" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>132</v>
@@ -19117,15 +19117,15 @@
         <v/>
       </c>
       <c r="O56" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>132</v>
@@ -19162,15 +19162,15 @@
         <v/>
       </c>
       <c r="O57" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>132</v>
@@ -19207,15 +19207,15 @@
         <v/>
       </c>
       <c r="O58" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>132</v>
@@ -19252,15 +19252,15 @@
         <v/>
       </c>
       <c r="O59" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>132</v>
@@ -19297,15 +19297,15 @@
         <v/>
       </c>
       <c r="O60" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>132</v>
@@ -19342,15 +19342,15 @@
         <v/>
       </c>
       <c r="O61" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>132</v>
@@ -19387,15 +19387,15 @@
         <v/>
       </c>
       <c r="O62" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>132</v>
@@ -19432,15 +19432,15 @@
         <v/>
       </c>
       <c r="O63" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>132</v>
@@ -19477,15 +19477,15 @@
         <v/>
       </c>
       <c r="O64" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>132</v>
@@ -19522,15 +19522,15 @@
         <v/>
       </c>
       <c r="O65" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>132</v>
@@ -19567,15 +19567,15 @@
         <v/>
       </c>
       <c r="O66" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>132</v>
@@ -19612,15 +19612,15 @@
         <v/>
       </c>
       <c r="O67" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>132</v>
@@ -19657,15 +19657,15 @@
         <v/>
       </c>
       <c r="O68" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>132</v>
@@ -19686,7 +19686,7 @@
         <v/>
       </c>
       <c r="K69" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K69:K110" si="3">IF($E69="-","","800_"&amp;$E69&amp;".lnk")</f>
         <v/>
       </c>
       <c r="L69" s="1" t="str">
@@ -19702,15 +19702,15 @@
         <v/>
       </c>
       <c r="O69" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>132</v>
@@ -19731,7 +19731,7 @@
         <v/>
       </c>
       <c r="K70" s="1" t="str">
-        <f t="shared" ref="K70:K111" si="3">IF($E70="-","","800_"&amp;$E70&amp;".lnk")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L70" s="1" t="str">
@@ -19747,15 +19747,15 @@
         <v/>
       </c>
       <c r="O70" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>132</v>
@@ -19792,15 +19792,15 @@
         <v/>
       </c>
       <c r="O71" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>132</v>
@@ -19837,15 +19837,15 @@
         <v/>
       </c>
       <c r="O72" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>132</v>
@@ -19882,15 +19882,15 @@
         <v/>
       </c>
       <c r="O73" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>132</v>
@@ -19927,15 +19927,15 @@
         <v/>
       </c>
       <c r="O74" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>132</v>
@@ -19972,15 +19972,15 @@
         <v/>
       </c>
       <c r="O75" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>132</v>
@@ -20017,15 +20017,15 @@
         <v/>
       </c>
       <c r="O76" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>132</v>
@@ -20062,15 +20062,15 @@
         <v/>
       </c>
       <c r="O77" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>132</v>
@@ -20107,15 +20107,15 @@
         <v/>
       </c>
       <c r="O78" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>132</v>
@@ -20152,15 +20152,15 @@
         <v/>
       </c>
       <c r="O79" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>132</v>
@@ -20197,15 +20197,15 @@
         <v/>
       </c>
       <c r="O80" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>132</v>
@@ -20242,15 +20242,15 @@
         <v/>
       </c>
       <c r="O81" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>132</v>
@@ -20287,15 +20287,15 @@
         <v/>
       </c>
       <c r="O82" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>132</v>
@@ -20332,15 +20332,15 @@
         <v/>
       </c>
       <c r="O83" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>132</v>
@@ -20377,15 +20377,15 @@
         <v/>
       </c>
       <c r="O84" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>132</v>
@@ -20422,15 +20422,15 @@
         <v/>
       </c>
       <c r="O85" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>132</v>
@@ -20467,15 +20467,15 @@
         <v/>
       </c>
       <c r="O86" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>132</v>
@@ -20512,15 +20512,15 @@
         <v/>
       </c>
       <c r="O87" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>132</v>
@@ -20557,15 +20557,15 @@
         <v/>
       </c>
       <c r="O88" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>132</v>
@@ -20602,15 +20602,15 @@
         <v/>
       </c>
       <c r="O89" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>132</v>
@@ -20647,15 +20647,15 @@
         <v/>
       </c>
       <c r="O90" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>132</v>
@@ -20692,15 +20692,15 @@
         <v/>
       </c>
       <c r="O91" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>132</v>
@@ -20737,15 +20737,15 @@
         <v/>
       </c>
       <c r="O92" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>132</v>
@@ -20782,15 +20782,15 @@
         <v/>
       </c>
       <c r="O93" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>132</v>
@@ -20827,15 +20827,15 @@
         <v/>
       </c>
       <c r="O94" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>132</v>
@@ -20872,15 +20872,15 @@
         <v/>
       </c>
       <c r="O95" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>132</v>
@@ -20917,15 +20917,15 @@
         <v/>
       </c>
       <c r="O96" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>132</v>
@@ -20962,15 +20962,15 @@
         <v/>
       </c>
       <c r="O97" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>132</v>
@@ -21007,15 +21007,15 @@
         <v/>
       </c>
       <c r="O98" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>132</v>
@@ -21052,15 +21052,15 @@
         <v/>
       </c>
       <c r="O99" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>132</v>
@@ -21097,15 +21097,15 @@
         <v/>
       </c>
       <c r="O100" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>132</v>
@@ -21142,15 +21142,15 @@
         <v/>
       </c>
       <c r="O101" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>132</v>
@@ -21187,15 +21187,15 @@
         <v/>
       </c>
       <c r="O102" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>132</v>
@@ -21232,15 +21232,15 @@
         <v/>
       </c>
       <c r="O103" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>132</v>
@@ -21277,15 +21277,15 @@
         <v/>
       </c>
       <c r="O104" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>132</v>
@@ -21322,15 +21322,15 @@
         <v/>
       </c>
       <c r="O105" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>132</v>
@@ -21367,15 +21367,15 @@
         <v/>
       </c>
       <c r="O106" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>132</v>
@@ -21412,15 +21412,15 @@
         <v/>
       </c>
       <c r="O107" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>132</v>
@@ -21457,15 +21457,15 @@
         <v/>
       </c>
       <c r="O108" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>132</v>
@@ -21502,15 +21502,15 @@
         <v/>
       </c>
       <c r="O109" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>132</v>
@@ -21547,58 +21547,13 @@
         <v/>
       </c>
       <c r="O110" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
-      <c r="A111" s="1">
-        <v>107</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H111" s="1" t="str">
-        <f>IF($D111="-","","mkdir """&amp;概要!$C$4&amp;"\"&amp;概要!$C$8&amp;""" &amp; """&amp;概要!$C$7&amp;""" """&amp;$I111&amp;""" """&amp;$C111&amp;"""")</f>
-        <v/>
-      </c>
-      <c r="I111" s="1" t="str">
-        <f>IF($D111="-","",概要!$C$4&amp;"\"&amp;概要!$C$8&amp;"\"&amp;D111&amp;".lnk")</f>
-        <v/>
-      </c>
-      <c r="J111" s="1" t="str">
-        <f>IF($E111="-","",""""&amp;概要!$C$7&amp;""" """&amp;$L111&amp;""" """&amp;$C111&amp;"""")</f>
-        <v/>
-      </c>
-      <c r="K111" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L111" s="1" t="str">
-        <f>IF($E111="-","",概要!$C$5&amp;"\"&amp;K111)</f>
-        <v/>
-      </c>
-      <c r="M111" s="1" t="str">
-        <f>IF($F111="-","",""""&amp;概要!$C$7&amp;""" """&amp;$N111&amp;""" """&amp;$C111&amp;"""")</f>
-        <v/>
-      </c>
-      <c r="N111" s="1" t="str">
-        <f>IF($F111="-","",概要!$C$6&amp;"\"&amp;$F111&amp;".lnk")</f>
-        <v/>
-      </c>
-      <c r="O111" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G111" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G111">
-      <sortCondition ref="A3:A111"/>
+  <autoFilter ref="A3:G110" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G110">
+      <sortCondition ref="A3:A110"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2"/>
